--- a/src/data/MindQuest DB.xlsx
+++ b/src/data/MindQuest DB.xlsx
@@ -5,24 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerda\Documents\Personal\Projects\mind-quest\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE98FC1-2A7A-49D2-A77A-255BB76E75F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CBFC84-6D42-410F-B15B-E4C31A388769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="3" r:id="rId1"/>
     <sheet name="mexQuestions" sheetId="1" r:id="rId2"/>
     <sheet name="usQuestions" sheetId="2" r:id="rId3"/>
+    <sheet name="geographyQuestions" sheetId="4" r:id="rId4"/>
+    <sheet name="sportQuestions" sheetId="5" r:id="rId5"/>
+    <sheet name="worldQuestions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="499">
   <si>
     <t>Key</t>
   </si>
@@ -700,13 +703,832 @@
   </si>
   <si>
     <t>Golden eagle - Águila dorada, Quetzal, Toucan, Hummingbird - Colibrí</t>
+  </si>
+  <si>
+    <t>What is the capital city of Australia?</t>
+  </si>
+  <si>
+    <t>¿Cuál es la capital de Australia?</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Canberra, Sydney, Melbourne, Brisbane</t>
+  </si>
+  <si>
+    <t>Which river is the longest in the world?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el río más largo del mundo?</t>
+  </si>
+  <si>
+    <t>Nile River - Río Nilo</t>
+  </si>
+  <si>
+    <t>Nile River - Río Nilo, Amazon River - Río Amazonas, Yangtze River - Río Yangtsé, Mississippi River - Río Mississippi</t>
+  </si>
+  <si>
+    <t>In which mountain range is Mount Everest located?</t>
+  </si>
+  <si>
+    <t>¿En qué cadena montañosa (cordillera) se encuentra el Monte Everest?</t>
+  </si>
+  <si>
+    <t>Himalayas - Himalayas</t>
+  </si>
+  <si>
+    <t>Himalayas - Himalayas, Rocky Mountains - Montañas Rocosas, Andes - Andes, Alps - Alpes</t>
+  </si>
+  <si>
+    <t>Which country is known as the Land of the Rising Sun?</t>
+  </si>
+  <si>
+    <t>¿Qué país es conocido como la Tierra del Sol Naciente?</t>
+  </si>
+  <si>
+    <t>Japan - Japón</t>
+  </si>
+  <si>
+    <t>Japan - Japón, China - China, South Korea - Corea del Sur, Vietnam - Vietnam</t>
+  </si>
+  <si>
+    <t>What is the largest desert in the world?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el desierto más grande del mundo?</t>
+  </si>
+  <si>
+    <t>Antarctica - Antártida</t>
+  </si>
+  <si>
+    <t>Antarctica - Antártida, Sahara Desert - Desierto del Sáhara, Arabian Desert - Desierto Arábigo, Gobi Desert - Desierto de Gobi</t>
+  </si>
+  <si>
+    <t>What is the capital city of South Africa?</t>
+  </si>
+  <si>
+    <t>¿Cuál es la capital de Sudáfrica?</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>Pretoria, Johannesburg, Cape Town, Durban</t>
+  </si>
+  <si>
+    <t>Which river is the longest in Europe?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el río más largo de Europa?</t>
+  </si>
+  <si>
+    <t>Volga River - Río Volga</t>
+  </si>
+  <si>
+    <t>Volga River - Río Volga, Danube River - Río Danubio, Thames River - Río Támesis, Rhine River - Río Rin</t>
+  </si>
+  <si>
+    <t>In which ocean is the Mariana Trench located?</t>
+  </si>
+  <si>
+    <t>¿En qué océano se encuentra la Fosa de las Marianas?</t>
+  </si>
+  <si>
+    <t>Pacific Ocean - Océano Pacífico, Atlantic Ocean - Océano Atlántico, Indian Ocean - Océano Índico, Southern Ocean - Océano Austral</t>
+  </si>
+  <si>
+    <t>Which two European countries are separated by the Pyrenees Mountains?</t>
+  </si>
+  <si>
+    <t>¿Qué dos países europeos están separados por los Pirineos?</t>
+  </si>
+  <si>
+    <t>France and Spain - Francia y España</t>
+  </si>
+  <si>
+    <t>France and Spain - Francia y España, Germany and Austria - Alemania y Austria, Italy and Switzerland - Italia y Suiza, Greece and Bulgaria - Grecia y Bulgaria</t>
+  </si>
+  <si>
+    <t>geographyQuestions</t>
+  </si>
+  <si>
+    <t>Geography - Geografia</t>
+  </si>
+  <si>
+    <t>What is the most popular sport in the United States?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el deporte más popular en los Estados Unidos?</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Football, Baseball, Basketball, Soccer</t>
+  </si>
+  <si>
+    <t>What is the most popular sport in the world?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el deporte más popular en el mundo?</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Soccer, Football, Baseball, Basketball</t>
+  </si>
+  <si>
+    <t>How long is an Olympic swimming pool?</t>
+  </si>
+  <si>
+    <t>¿Cuánto mide una alberca olímpica?</t>
+  </si>
+  <si>
+    <t>50 m</t>
+  </si>
+  <si>
+    <t>50 m, 25 m, 100 m, 75 m</t>
+  </si>
+  <si>
+    <t>How many players are on a baseball team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de béisbol?</t>
+  </si>
+  <si>
+    <t>9, 10, 11, 12</t>
+  </si>
+  <si>
+    <t>How many players are on a soccer team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de fútbol?</t>
+  </si>
+  <si>
+    <t>11, 10, 9, 12</t>
+  </si>
+  <si>
+    <t>How many players are on a basketball team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de básquetbol?</t>
+  </si>
+  <si>
+    <t>5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>How many players are on a football team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de fútbol americano?</t>
+  </si>
+  <si>
+    <t>How many players are on a volleyball team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de voleibol?</t>
+  </si>
+  <si>
+    <t>6, 5, 7, 8</t>
+  </si>
+  <si>
+    <t>How many players are on a hockey team?</t>
+  </si>
+  <si>
+    <t>¿Cuántos jugadores hay en un equipo de hockey?</t>
+  </si>
+  <si>
+    <t>What is the distance in a marathon?</t>
+  </si>
+  <si>
+    <t>¿Cuál es la distancia en un maratón?</t>
+  </si>
+  <si>
+    <t>42.2 km - 26.2 mi</t>
+  </si>
+  <si>
+    <t>42.2 km - 26.2 mi, 21.1 km - 13.1 mi, 10 km - 6.2 mi, 5 km - 3.1 mi</t>
+  </si>
+  <si>
+    <t>How many points is a touchdown worth?</t>
+  </si>
+  <si>
+    <t>¿Cuántos puntos vale un touchdown?</t>
+  </si>
+  <si>
+    <t>6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>How many points is a field goal worth?</t>
+  </si>
+  <si>
+    <t>¿Cuántos puntos vale un gol de campo?</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>How many points is a safety worth?</t>
+  </si>
+  <si>
+    <t>¿Cuántos puntos vale una safety?</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>How many points is a free throw worth?</t>
+  </si>
+  <si>
+    <t>¿Cuántos puntos vale un tiro libre?</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Number of teams in the MLB?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la MLB?</t>
+  </si>
+  <si>
+    <t>30, 29, 31, 32</t>
+  </si>
+  <si>
+    <t>Number of teams in the NFL?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la NFL?</t>
+  </si>
+  <si>
+    <t>32, 31, 33, 34</t>
+  </si>
+  <si>
+    <t>Number of teams in the NBA?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la NBA?</t>
+  </si>
+  <si>
+    <t>Number of teams in the NHL?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la NHL?</t>
+  </si>
+  <si>
+    <t>How many teams in FIFA World Cup?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la Copa Mundial de la FIFA?</t>
+  </si>
+  <si>
+    <t>How many teams in the Olympics?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en los Juegos Olímpicos?</t>
+  </si>
+  <si>
+    <t>206, 205, 207, 208</t>
+  </si>
+  <si>
+    <t>How many teams in Formula 1?</t>
+  </si>
+  <si>
+    <t>¿Cuántos equipos hay en la Fórmula 1?</t>
+  </si>
+  <si>
+    <t>10, 9, 11, 12</t>
+  </si>
+  <si>
+    <t>The Olympics are held every how many years?</t>
+  </si>
+  <si>
+    <t>¿Cada cuántos años se celebran los Juegos Olímpicos?</t>
+  </si>
+  <si>
+    <t>4, 2, 6, 8</t>
+  </si>
+  <si>
+    <t>Who is the all-time top scorer in men's international football?</t>
+  </si>
+  <si>
+    <t>¿Quién es el máximo goleador de todos los tiempos en el fútbol internacional masculino?</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo, Lionel Messi, Pele, Diego Maradona</t>
+  </si>
+  <si>
+    <t>In which sport would you perform a slam dunk?</t>
+  </si>
+  <si>
+    <t>¿En qué deporte realizarías un slaml dunk?</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Basketball, Soccer, Tennis, Golf</t>
+  </si>
+  <si>
+    <t>How many Grand Slam tennis tournaments are there in a calendar year?</t>
+  </si>
+  <si>
+    <t>¿Cuántos torneos de Grand Slam de tenis hay en un año calendario?</t>
+  </si>
+  <si>
+    <t>4, 3, 5, 6</t>
+  </si>
+  <si>
+    <t>What is the national sport of Japan?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el deporte nacional de Japón?</t>
+  </si>
+  <si>
+    <t>Sumo wrestling</t>
+  </si>
+  <si>
+    <t>Sumo wrestling, Judo, Karate, Baseball</t>
+  </si>
+  <si>
+    <t>Who won the FIFA World Cup in 2018?</t>
+  </si>
+  <si>
+    <t>¿Quién ganó la Copa Mundial de la FIFA en 2018?</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>France, Croatia, Brazil, Germany</t>
+  </si>
+  <si>
+    <t>Who holds the record for the most Olympic gold medals?</t>
+  </si>
+  <si>
+    <t>¿Quién tiene el récord de más medallas de oro olímpicas?</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>Michael Phelps, Usain Bolt, Simone Biles, Nadia Comăneci</t>
+  </si>
+  <si>
+    <t>Which country has won the most FIFA World Cups?</t>
+  </si>
+  <si>
+    <t>¿Qué país ha ganado más Copas Mundiales de la FIFA?</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brazil, Germany, Italy, Argentina</t>
+  </si>
+  <si>
+    <t>In which year was the first modern Olympic Games held?</t>
+  </si>
+  <si>
+    <t>¿En qué año se celebraron los primeros Juegos Olímpicos modernos?</t>
+  </si>
+  <si>
+    <t>1896, 1900, 1920, 1936</t>
+  </si>
+  <si>
+    <t>Which NFL team has won the most Super Bowl championships?</t>
+  </si>
+  <si>
+    <t>¿Qué equipo de la NFL ha ganado más campeonatos de Super Bowl?</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>New England Patriots, Pittsburgh Steelers, Dallas Cowboys, San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>What is the diameter of a standard basketball hoop in inches?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el diámetro de un aro de baloncesto estándar en pulgadas?</t>
+  </si>
+  <si>
+    <t>16, 18, 20, 22</t>
+  </si>
+  <si>
+    <t>sportQuestions</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Which country was the first to use paper money?</t>
+  </si>
+  <si>
+    <t>¿Qué país fue el primero en usar papel moneda (billetes)?</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>China, United States, England, France</t>
+  </si>
+  <si>
+    <t>What is the most spoken language in the world?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el idioma más hablado en el mundo?</t>
+  </si>
+  <si>
+    <t>Chinese - Chino</t>
+  </si>
+  <si>
+    <t>Chinese - Chino, English - Inglés, Spanish - Español, French - Francés</t>
+  </si>
+  <si>
+    <t>Name of Ukranian power plant that exploded in 1986?</t>
+  </si>
+  <si>
+    <t>¿Nombre de la planta de energía ucraniana que explotó en 1986?</t>
+  </si>
+  <si>
+    <t>Chernobyl</t>
+  </si>
+  <si>
+    <t>Chernobyl, Fukushima, Three Mile Island, Windscale</t>
+  </si>
+  <si>
+    <t>What is the name of the biggest technology company in South Korea?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de la compañía de tecnología más grande de Corea del Sur?</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Samsung, LG, Hyundai, SK</t>
+  </si>
+  <si>
+    <t>What is the name of the biggest technology company in Japan?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de la compañía de tecnología más grande de Japón?</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Sony, Toshiba, Panasonic, Hitachi</t>
+  </si>
+  <si>
+    <t>What was the largest empire in history?</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el imperio más grande de la historia?</t>
+  </si>
+  <si>
+    <t>British Empire - Imperio Británico</t>
+  </si>
+  <si>
+    <t>British Empire - Imperio Británico, Mongol Empire - Imperio Mongol, Russian Empire - Imperio Ruso, Spanish Empire - Imperio Español</t>
+  </si>
+  <si>
+    <t>Who wrote Hamlet?</t>
+  </si>
+  <si>
+    <t>¿Quién escribió Hamlet?</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>William Shakespeare, Charles Dickens, Jane Austen, Mark Twain</t>
+  </si>
+  <si>
+    <t>German leader during WWII?</t>
+  </si>
+  <si>
+    <t>¿Líder alemán durante la Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>Adolf Hitler, Charles de Gaulle, Winston Churchill, Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Russian leader during WWII?</t>
+  </si>
+  <si>
+    <t>¿Líder ruso durante la Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>Joseph Stalin, Vladimir Lenin, Mikhail Gorbachev, Boris Yeltsin</t>
+  </si>
+  <si>
+    <t>British leader during WWII?</t>
+  </si>
+  <si>
+    <t>¿Líder británico durante la Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t>Winston Churchill</t>
+  </si>
+  <si>
+    <t>Winston Churchill, Neville Chamberlain, Margaret Thatcher, Tony Blair</t>
+  </si>
+  <si>
+    <t>French leader during WWII?</t>
+  </si>
+  <si>
+    <t>¿Líder francés durante la Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle, Georges Clemenceau, Francois Mitterrand, Jacques Chirac</t>
+  </si>
+  <si>
+    <t>In what year did the Berlin Wall fall?</t>
+  </si>
+  <si>
+    <t>¿En qué año cayó el Muro de Berlín?</t>
+  </si>
+  <si>
+    <t>1989, 1987, 1991, 1993</t>
+  </si>
+  <si>
+    <t>In what year did the Soviet Union collapse?</t>
+  </si>
+  <si>
+    <t>¿En qué año se derrumbó la Unión Soviética?</t>
+  </si>
+  <si>
+    <t>1991, 1989, 1993, 1995</t>
+  </si>
+  <si>
+    <t>In what ocean did the Titanic sink?</t>
+  </si>
+  <si>
+    <t>¿En qué océano se hundió el Titanic?</t>
+  </si>
+  <si>
+    <t>What is the name of the largest desert in the world?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre del desierto más grande del mundo?</t>
+  </si>
+  <si>
+    <t>Sahara</t>
+  </si>
+  <si>
+    <t>Sahara, Gobi, Arabian, Kalahari</t>
+  </si>
+  <si>
+    <t>Cuban leader that lasted 50 years?</t>
+  </si>
+  <si>
+    <t>¿Líder cubano que duró 50 años?</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Fidel Castro, Raul Castro, Che Guevara, Fulgencio Batista</t>
+  </si>
+  <si>
+    <t>Which continent was affected the most by the Black Death?</t>
+  </si>
+  <si>
+    <t>¿Qué continente se vio más afectado por la Peste Negra?</t>
+  </si>
+  <si>
+    <t>Europe - Europa</t>
+  </si>
+  <si>
+    <t>Europe - Europa, Asia - Asia, Africa - África, North America - América del Norte</t>
+  </si>
+  <si>
+    <t>During which was did Korea split into North and South?</t>
+  </si>
+  <si>
+    <t>¿Durante cuál fue Corea se dividió en Norte y Sur?</t>
+  </si>
+  <si>
+    <t>Korean War - Guerra de Corea</t>
+  </si>
+  <si>
+    <t>Korean War - Guerra de Corea, Vietnam War - Guerra de Vietnam, World War I - Primera Guerra Mundial, World War II - Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>In what year did Colombus discover America?</t>
+  </si>
+  <si>
+    <t>¿En qué año descubrió Colón América?</t>
+  </si>
+  <si>
+    <t>1492, 1490, 1494, 1496</t>
+  </si>
+  <si>
+    <t>The word "quarantine" comes from which language?</t>
+  </si>
+  <si>
+    <t>¿De qué idioma proviene la palabra "cuarentena"?</t>
+  </si>
+  <si>
+    <t>Italian - Italiano</t>
+  </si>
+  <si>
+    <t>Italian - Italiano, Spanish - Español, French - Francés, German - Alemán</t>
+  </si>
+  <si>
+    <t>Country where the Olympics were born?</t>
+  </si>
+  <si>
+    <t>¿País donde nacieron los Juegos Olímpicos?</t>
+  </si>
+  <si>
+    <t>Greece - Grecia</t>
+  </si>
+  <si>
+    <t>Greece - Grecia, Italy - Italia, France - Francia, Germany - Alemania</t>
+  </si>
+  <si>
+    <t>Who is the oldest civilization in the world?</t>
+  </si>
+  <si>
+    <t>¿Quién es la civilización más antigua del mundo?</t>
+  </si>
+  <si>
+    <t>Mesopotamia</t>
+  </si>
+  <si>
+    <t>Mesopotamia, Egypt - Egipto, China - China, India - India</t>
+  </si>
+  <si>
+    <t>In what year did the Berlin Wall fall, symbolizing the end of the Cold War?</t>
+  </si>
+  <si>
+    <t>¿En qué año cayó el Muro de Berlín, simbolizando el fin de la Guerra Fría?</t>
+  </si>
+  <si>
+    <t>1989, 1991, 1985, 1993</t>
+  </si>
+  <si>
+    <t>Who was the first woman to win a Nobel Prize and is known for her work in physics?</t>
+  </si>
+  <si>
+    <t>¿Quién fue la primera mujer en ganar un Premio Nobel y es conocida por su trabajo en física?</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Marie Curie, Amelia Earhart, Rosa Parks, Mother Teresa</t>
+  </si>
+  <si>
+    <t>Which empire was known for its extensive road system, including the famous Appian Way?</t>
+  </si>
+  <si>
+    <t>¿Qué imperio era conocido por su extenso sistema de carreteras, incluida la famosa Vía Apia?</t>
+  </si>
+  <si>
+    <t>Roman Empire - Imperio Romano</t>
+  </si>
+  <si>
+    <t>Roman Empire - Imperio Romano, British Empire - Imperio Británico, Mongol Empire - Imperio Mongol, Russian Empire - Imperio Ruso</t>
+  </si>
+  <si>
+    <t>The Industrial Revolution began in which country?</t>
+  </si>
+  <si>
+    <t>¿En qué país comenzó la Revolución Industrial?</t>
+  </si>
+  <si>
+    <t>England - Inglaterra</t>
+  </si>
+  <si>
+    <t>England - Inglaterra, France - Francia, Germany - Alemania, United States - Estados Unidos</t>
+  </si>
+  <si>
+    <t>What event is often considered the start of World War II?</t>
+  </si>
+  <si>
+    <t>¿Qué evento se considera a menudo el inicio de la Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t>Invasion of Poland - Invasión de Polonia</t>
+  </si>
+  <si>
+    <t>Invasion of Poland - Invasión de Polonia, Battle of Stalingrad - Batalla de Stalingrado, Pearl Harbor Attack - Ataque a Pearl Harbor, D-Day - Día D</t>
+  </si>
+  <si>
+    <t>Who was the first President of the United States?</t>
+  </si>
+  <si>
+    <t>¿Quién fue el primer Presidente de los Estados Unidos?</t>
+  </si>
+  <si>
+    <t>George Washington - George Washington</t>
+  </si>
+  <si>
+    <t>George Washington - George Washington, Abraham Lincoln - Abraham Lincoln, Thomas Jefferson - Thomas Jefferson, John Adams - John Adams</t>
+  </si>
+  <si>
+    <t>What ancient civilization built the city of Machu Picchu?</t>
+  </si>
+  <si>
+    <t>¿Qué civilización antigua construyó la ciudad de Machu Picchu?</t>
+  </si>
+  <si>
+    <t>Inca Empire - Imperio Inca</t>
+  </si>
+  <si>
+    <t>Inca Empire - Imperio Inca, Maya Civilization - Civilización Maya, Aztec Empire - Imperio Azteca, Ancient Greece - Antigua Grecia</t>
+  </si>
+  <si>
+    <t>Who wrote "The Communist Manifesto" with Karl Marx?</t>
+  </si>
+  <si>
+    <t>¿Quién escribió "El Manifiesto Comunista" junto a Karl Marx?</t>
+  </si>
+  <si>
+    <t>Friedrich Engels - Friedrich Engels</t>
+  </si>
+  <si>
+    <t>Friedrich Engels - Friedrich Engels, Vladimir Lenin - Vladimir Lenin, Joseph Stalin - Joseph Stalin, Mao Zedong - Mao Zedong</t>
+  </si>
+  <si>
+    <t>Who was the leader of the Soviet Union during the Cuban Missile Crisis?</t>
+  </si>
+  <si>
+    <t>¿Quién fue el líder de la Unión Soviética durante la Crisis de los Misiles en Cuba?</t>
+  </si>
+  <si>
+    <t>Nikita Khrushchev - Nikita Jrushchov</t>
+  </si>
+  <si>
+    <t>Nikita Khrushchev - Nikita Jrushchov, Joseph Stalin - José Stalin, Vladimir Putin - Vladimir Putin, Mikhail Gorbachev - Mijaíl Gorbachov</t>
+  </si>
+  <si>
+    <t>Which ancient civilization is known for the Hanging Gardens?</t>
+  </si>
+  <si>
+    <t>¿Qué civilización antigua es conocida por los Jardines Colgantes?</t>
+  </si>
+  <si>
+    <t>Babylonian Empire - Imperio Babilónico</t>
+  </si>
+  <si>
+    <t>Babylonian Empire - Imperio Babilónico, Egyptian Civilization - Civilización Egipcia, Persian Empire - Imperio Persa, Greek Empire - Imperio Griego</t>
+  </si>
+  <si>
+    <t>Who was the famous nurse known as the "Lady with the Lamp" during the Crimean War?</t>
+  </si>
+  <si>
+    <t>¿Quién fue la famosa enfermera conocida como la "Dama con la Lámpara" durante la Guerra de Crimea?</t>
+  </si>
+  <si>
+    <t>Florence Nightingale - Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Florence Nightingale - Florence Nightingale, Clara Barton - Clara Barton, Mary Seacole - Mary Seacole, Edith Cavell - Edith Cavell</t>
+  </si>
+  <si>
+    <t>Who was the leader of the Indian independence movement against British rule?</t>
+  </si>
+  <si>
+    <t>¿Quién fue el líder del movimiento de independencia de la India contra el dominio británico?</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi - Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi - Mahatma Gandhi, Jawaharlal Nehru - Jawaharlal Nehru, Subhas Chandra Bose - Subhas Chandra Bose, Sardar Patel - Sardar Patel</t>
+  </si>
+  <si>
+    <t>worldQuestions</t>
+  </si>
+  <si>
+    <t>World History - Historia Mundial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -749,6 +1571,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -801,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -814,6 +1642,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B63C4-1C91-4289-B686-2D2B2BFC5481}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1063,6 +1894,30 @@
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1932,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2104,4 +2959,1392 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DBE765-0971-43E5-B1C5-A5DA31CDD8D1}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7805B505-8747-49EC-A632-69FB754309E0}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="7">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="7">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="7">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="7">
+        <v>206</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1896</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020766FF-AB94-4426-8C53-B856B3475881}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13">
+        <v>1989</v>
+      </c>
+      <c r="E13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14">
+        <v>1991</v>
+      </c>
+      <c r="E14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20">
+        <v>1492</v>
+      </c>
+      <c r="E20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D22" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>447</v>
+      </c>
+      <c r="D23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24">
+        <v>1989</v>
+      </c>
+      <c r="E24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D28" t="s">
+        <v>467</v>
+      </c>
+      <c r="E28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D30" t="s">
+        <v>475</v>
+      </c>
+      <c r="E30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" t="s">
+        <v>478</v>
+      </c>
+      <c r="D31" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D32" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D33" t="s">
+        <v>487</v>
+      </c>
+      <c r="E33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" t="s">
+        <v>490</v>
+      </c>
+      <c r="D34" t="s">
+        <v>491</v>
+      </c>
+      <c r="E34" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35">
+        <v>1989</v>
+      </c>
+      <c r="E35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" t="s">
+        <v>495</v>
+      </c>
+      <c r="E36" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>